--- a/exchange/output/Oтчёт по изменениям базовый.xlsx
+++ b/exchange/output/Oтчёт по изменениям базовый.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
   <si>
     <t>Код</t>
   </si>
@@ -52,94 +52,184 @@
     <t>Розница</t>
   </si>
   <si>
-    <t>ARS/S 414 HF</t>
-  </si>
-  <si>
-    <t>Suspension kit PG 1,5m. metallic</t>
-  </si>
-  <si>
-    <t>AQUA LED 18 6000K</t>
-  </si>
-  <si>
-    <t>ACQUA S 06 WH 3000K (with driver)</t>
-  </si>
-  <si>
-    <t>LEADER LED 140 D75 Ex 5000K</t>
+    <t>ARS/S 418 /600/ HF</t>
+  </si>
+  <si>
+    <t>PRB/S 418 /600/ HF</t>
+  </si>
+  <si>
+    <t>OWP/R 418 /595/ IP54/IP54</t>
+  </si>
+  <si>
+    <t>ALD 236 HF new</t>
+  </si>
+  <si>
+    <t>CD 218 HF new</t>
+  </si>
+  <si>
+    <t>OWP/R 418 /595/ IP54/IP20 HF</t>
+  </si>
+  <si>
+    <t>ALD 218 HF new</t>
+  </si>
+  <si>
+    <t>OWP/S 418 /595x615/ IP54/IP54 HF</t>
+  </si>
+  <si>
+    <t>OWP/S 418 /595x615/ IP54/IP54</t>
+  </si>
+  <si>
+    <t>OWP/R 418 /595/ IP54/IP54 HF</t>
+  </si>
+  <si>
+    <t>PRB/R 418 /595/ HF</t>
+  </si>
+  <si>
+    <t>ARS/S 236 HF</t>
+  </si>
+  <si>
+    <t>RW 36 reflector for BAT new</t>
+  </si>
+  <si>
+    <t>ARS/S 218 HF</t>
+  </si>
+  <si>
+    <t>Bracket connecting LNK new</t>
+  </si>
+  <si>
+    <t>Bracket connecting LNK (90 deg.) new</t>
+  </si>
+  <si>
+    <t>RWU 36 reflector for BAT new</t>
+  </si>
+  <si>
+    <t>OPL/S 218 HF</t>
+  </si>
+  <si>
+    <t>ARS/R 418 /595/ HF</t>
+  </si>
+  <si>
+    <t>OPL/S 236 HF</t>
+  </si>
+  <si>
+    <t>OPL/S 418 HF</t>
+  </si>
+  <si>
+    <t>PRS/S 418 HF</t>
+  </si>
+  <si>
+    <t>Крепежная планка HELIO</t>
+  </si>
+  <si>
+    <t>PRS/S 218 HF</t>
+  </si>
+  <si>
+    <t>PRS/S 236 HF</t>
+  </si>
+  <si>
+    <t>Cover end LNK</t>
+  </si>
+  <si>
+    <t>Bracket suspension cable LNK</t>
+  </si>
+  <si>
+    <t>OPL/S 258 HF</t>
+  </si>
+  <si>
+    <t>OPL/R 418 /595/ HF GRILIATO</t>
+  </si>
+  <si>
+    <t>ARS/S 436 /600/ HF</t>
+  </si>
+  <si>
+    <t>OWP/R 418 /595/ IP54/IP54 HF ES1</t>
+  </si>
+  <si>
+    <t>ARS/S 418 /600/ HF ES1</t>
+  </si>
+  <si>
+    <t>ARS/R 418 /595/ HF ES1</t>
+  </si>
+  <si>
+    <t>BAT 236 HF new</t>
+  </si>
+  <si>
+    <t>OPL/R 218 HF</t>
+  </si>
+  <si>
+    <t>LYRA 6521-4 LED</t>
+  </si>
+  <si>
+    <t>URAN 6523-4 LED</t>
+  </si>
+  <si>
+    <t>MIZAR 4023-4 LED S</t>
+  </si>
+  <si>
+    <t>OKKO 18 WH 4000K (with driver)</t>
+  </si>
+  <si>
+    <t>OKKO P 26 WH 4000K</t>
+  </si>
+  <si>
+    <t>OKKO S 38 BL 4000K</t>
+  </si>
+  <si>
+    <t>OKKO P 18 WH 4000K</t>
   </si>
   <si>
     <t>OPL/R ECO LED 595 STANDARD 4000K Edge 24-04</t>
   </si>
   <si>
-    <t>ZENITH LED 90 D270 B Ex G2</t>
-  </si>
-  <si>
-    <t>ZENITH LED 30 D270 BT Ex G2</t>
-  </si>
-  <si>
-    <t>ZENITH LED 70 D270 B Ex G2</t>
-  </si>
-  <si>
-    <t>HB LED 150 D60 Ex 5000K</t>
-  </si>
-  <si>
-    <t>SLICK.PRS LED 50 with driver box /tempered glass/ Ex 5000K</t>
-  </si>
-  <si>
-    <t>SLICK.PRS LED 30 with driver box Ex 5000K</t>
-  </si>
-  <si>
-    <t>SLICK.PRS LED 30 with driver box /tempered glass/ with through wiring Ex 5000K</t>
-  </si>
-  <si>
-    <t>URAN LED Exd-C002 ВЫХОД НАПРАВО Б/З</t>
-  </si>
-  <si>
-    <t>LEGATO LED 18W D45x35 730 SL</t>
-  </si>
-  <si>
-    <t>GLOSS LED 20 D50 4000K</t>
-  </si>
-  <si>
-    <t>ARMA/T LED 38 BL D45 4000K</t>
-  </si>
-  <si>
-    <t>LEADER LED 100W D15 730 RAL9006</t>
-  </si>
-  <si>
-    <t>ASM/S LED 1500 SCHOOL 4000K (3000lm)</t>
-  </si>
-  <si>
-    <t>Драйвер LED 80Вт-500мА (LT B1x80W 0.5A LL) ГП</t>
-  </si>
-  <si>
-    <t>ARMA/T LED 38 WH D15 4000K</t>
-  </si>
-  <si>
-    <t>HB LED 300 D60 4000K G2</t>
-  </si>
-  <si>
-    <t>HB LED 200 D60 4000K G2</t>
-  </si>
-  <si>
-    <t>URAN LED Exd-W014 ГАЗ! НЕ ВХОДИТЬ! Б/К</t>
-  </si>
-  <si>
-    <t>HB LED 150 D30 5000K G2</t>
-  </si>
-  <si>
-    <t>LEADER LED 200W D30 740 RAL9006 CR</t>
-  </si>
-  <si>
-    <t>MINI STANDARD LED 25W DW 840 RAL9006</t>
-  </si>
-  <si>
-    <t>PROFILE 60L P LED 1200 WH 5500K</t>
-  </si>
-  <si>
-    <t>ALD UNI LED 1200 4000K CRI90</t>
-  </si>
-  <si>
-    <t>ARCTIC.OPL ECO LED 600 HFD 3000K</t>
+    <t>ARMA/T LED 28 WH D45 MEAT</t>
+  </si>
+  <si>
+    <t>LED MALL ECO 35 IP54 3000K</t>
+  </si>
+  <si>
+    <t>SLICK.PRS LED 50 with driver box /tempered glass/ 4000K</t>
+  </si>
+  <si>
+    <t>LEADER LED 30W D75 750 RAL9006 EXTREME</t>
+  </si>
+  <si>
+    <t>OPL/R ECO LED 595 4000K Edge 24-02</t>
+  </si>
+  <si>
+    <t>SLICK.OPL LED 50 with driver box /matt tempered glass/ with through wiring Ex 5000K</t>
+  </si>
+  <si>
+    <t>DECA LED 4 3000K</t>
+  </si>
+  <si>
+    <t>INSEL LB/S LED 70 D30 5000K G2</t>
+  </si>
+  <si>
+    <t>ARCTIC.OPL ECO LED 1200 EM3 5000K</t>
+  </si>
+  <si>
+    <t>LED MALL ECO (1000) 50 D90 IP54 3000K</t>
+  </si>
+  <si>
+    <t>QUO 07 WH D45 4000K (with driver)</t>
+  </si>
+  <si>
+    <t>PTF/R UNI LED 1200 4000K</t>
+  </si>
+  <si>
+    <t>OPTIMA.OPL ECO LED 1200 EM 4000K CRI90 SCHOOL</t>
+  </si>
+  <si>
+    <t>Блок питания MeanWell 96Вт-24В MDR-100-24</t>
+  </si>
+  <si>
+    <t>ZENITH LED 70 D120 G Ex G2</t>
+  </si>
+  <si>
+    <t>OPTIMA.PRS ECO LED 595 EM 4000K CRI90</t>
+  </si>
+  <si>
+    <t>OWP/R OPTIMA LED 589 IP54/IP54 4000K GRILIATO mat</t>
   </si>
   <si>
     <t>шт</t>
@@ -500,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,1180 +636,2662 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>146693</v>
+        <v>3912</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1041000300</v>
+        <v>1041000350</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E2">
-        <v>9350</v>
+        <v>8194</v>
       </c>
       <c r="F2">
-        <v>1990</v>
+        <v>8194</v>
       </c>
       <c r="G2">
-        <v>6919</v>
+        <v>6063.56</v>
       </c>
       <c r="H2">
-        <v>2288.5</v>
+        <v>6243.83</v>
       </c>
       <c r="I2">
-        <v>5937.25</v>
+        <v>5203.19</v>
       </c>
       <c r="J2">
-        <v>1990</v>
+        <v>5203.19</v>
       </c>
       <c r="K2">
-        <v>8303</v>
+        <v>7277</v>
       </c>
       <c r="L2">
-        <v>2986</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>227900</v>
+        <v>3976</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>2909003410</v>
+        <v>1043000160</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E3">
-        <v>1082</v>
+        <v>9190</v>
       </c>
       <c r="F3">
-        <v>333</v>
+        <v>9190</v>
       </c>
       <c r="G3">
-        <v>800.6799999999999</v>
+        <v>6800.6</v>
       </c>
       <c r="H3">
-        <v>382.95</v>
+        <v>7002.78</v>
       </c>
       <c r="I3">
-        <v>687.0700000000001</v>
+        <v>5835.65</v>
       </c>
       <c r="J3">
-        <v>333</v>
+        <v>5835.65</v>
       </c>
       <c r="K3">
-        <v>961</v>
+        <v>8161</v>
       </c>
       <c r="L3">
-        <v>499.97</v>
+        <v>8161</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>228754</v>
+        <v>93034</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>2909003410</v>
+        <v>1373000130</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E4">
-        <v>1082</v>
+        <v>15671</v>
       </c>
       <c r="F4">
-        <v>333</v>
+        <v>15671</v>
       </c>
       <c r="G4">
-        <v>800.6799999999999</v>
+        <v>11596.54</v>
       </c>
       <c r="H4">
-        <v>382.95</v>
+        <v>11941.31</v>
       </c>
       <c r="I4">
-        <v>687.0700000000001</v>
+        <v>9951.09</v>
       </c>
       <c r="J4">
-        <v>333</v>
+        <v>9951.08</v>
       </c>
       <c r="K4">
-        <v>961</v>
+        <v>13916</v>
       </c>
       <c r="L4">
-        <v>499.97</v>
+        <v>13916</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>258983</v>
+        <v>100786</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>1484000060</v>
+        <v>1004000110</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>23584</v>
+        <v>10231</v>
       </c>
       <c r="F5">
-        <v>5000</v>
+        <v>10231</v>
       </c>
       <c r="G5">
-        <v>23584</v>
+        <v>7570.94</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7796.03</v>
       </c>
       <c r="I5">
-        <v>19338.88</v>
+        <v>6496.69</v>
       </c>
       <c r="J5">
-        <v>5000</v>
+        <v>6496.68</v>
       </c>
       <c r="K5">
-        <v>28301</v>
+        <v>9086</v>
       </c>
       <c r="L5">
-        <v>7500</v>
+        <v>9086</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>432873</v>
+        <v>123652</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>1596000130</v>
+        <v>1133000050</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E6">
-        <v>3356</v>
+        <v>9043</v>
       </c>
       <c r="F6">
-        <v>1875</v>
+        <v>9043</v>
       </c>
       <c r="G6">
-        <v>2684.8</v>
+        <v>6691.82</v>
       </c>
       <c r="H6">
-        <v>2156.25</v>
+        <v>6890.77</v>
       </c>
       <c r="I6">
-        <v>2131.06</v>
+        <v>5742.31</v>
       </c>
       <c r="J6">
-        <v>1875</v>
+        <v>5742.3</v>
       </c>
       <c r="K6">
-        <v>3222</v>
+        <v>8031</v>
       </c>
       <c r="L6">
-        <v>2813</v>
+        <v>8031</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>529436</v>
+        <v>126629</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>1350000510</v>
+        <v>1373001120</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E7">
-        <v>85435</v>
+        <v>13843</v>
       </c>
       <c r="F7">
-        <v>14471</v>
+        <v>13843</v>
       </c>
       <c r="G7">
-        <v>81163.25</v>
+        <v>10243.82</v>
       </c>
       <c r="H7">
-        <v>16641.65</v>
+        <v>10548.37</v>
       </c>
       <c r="I7">
-        <v>72619.75</v>
+        <v>8790.309999999999</v>
       </c>
       <c r="J7">
-        <v>14471</v>
+        <v>8790.299999999999</v>
       </c>
       <c r="K7">
-        <v>97396</v>
+        <v>12293</v>
       </c>
       <c r="L7">
-        <v>21707</v>
+        <v>12292</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>544417</v>
+        <v>129915</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>1028001480</v>
+        <v>1004000060</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E8">
-        <v>9017</v>
+        <v>7475</v>
       </c>
       <c r="F8">
-        <v>9017</v>
+        <v>7475</v>
       </c>
       <c r="G8">
-        <v>6672.58</v>
+        <v>5531.5</v>
       </c>
       <c r="H8">
-        <v>6672.58</v>
+        <v>5695.96</v>
       </c>
       <c r="I8">
-        <v>5725.8</v>
+        <v>4746.63</v>
       </c>
       <c r="J8">
-        <v>5725.8</v>
+        <v>4746.62</v>
       </c>
       <c r="K8">
-        <v>8008</v>
+        <v>6638</v>
       </c>
       <c r="L8">
-        <v>7997</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>622663</v>
+        <v>136454</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>1226000650</v>
+        <v>1375000090</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E9">
-        <v>64808</v>
+        <v>14558</v>
       </c>
       <c r="F9">
-        <v>64808</v>
+        <v>14558</v>
       </c>
       <c r="G9">
-        <v>61567.6</v>
+        <v>10772.92</v>
       </c>
       <c r="H9">
-        <v>61567.6</v>
+        <v>11093.2</v>
       </c>
       <c r="I9">
-        <v>55086.8</v>
+        <v>9244.33</v>
       </c>
       <c r="J9">
-        <v>55086.8</v>
+        <v>9244.33</v>
       </c>
       <c r="K9">
-        <v>73882</v>
+        <v>12928</v>
       </c>
       <c r="L9">
-        <v>74367</v>
+        <v>12927</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>625333</v>
+        <v>139468</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>1226000720</v>
+        <v>1375000070</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E10">
-        <v>44418</v>
+        <v>12351</v>
       </c>
       <c r="F10">
-        <v>44418</v>
+        <v>12351</v>
       </c>
       <c r="G10">
-        <v>42197.1</v>
+        <v>9139.74</v>
       </c>
       <c r="H10">
-        <v>42197.1</v>
+        <v>9411.469999999999</v>
       </c>
       <c r="I10">
-        <v>37755.3</v>
+        <v>7842.89</v>
       </c>
       <c r="J10">
-        <v>37755.3</v>
+        <v>7842.88</v>
       </c>
       <c r="K10">
-        <v>50637</v>
+        <v>10968</v>
       </c>
       <c r="L10">
-        <v>50970</v>
+        <v>10967</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>630569</v>
+        <v>153789</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>1226000440</v>
+        <v>1373000280</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E11">
-        <v>49890</v>
+        <v>15671</v>
       </c>
       <c r="F11">
-        <v>49890</v>
+        <v>15671</v>
       </c>
       <c r="G11">
-        <v>47395.5</v>
+        <v>11596.54</v>
       </c>
       <c r="H11">
-        <v>47395.5</v>
+        <v>11941.31</v>
       </c>
       <c r="I11">
-        <v>42406.5</v>
+        <v>9951.09</v>
       </c>
       <c r="J11">
-        <v>42406.5</v>
+        <v>9951.08</v>
       </c>
       <c r="K11">
-        <v>56875</v>
+        <v>13916</v>
       </c>
       <c r="L11">
-        <v>57249</v>
+        <v>13916</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>632437</v>
+        <v>159873</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>1224001640</v>
+        <v>1017000180</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E12">
-        <v>75224</v>
+        <v>8221</v>
       </c>
       <c r="F12">
-        <v>75224</v>
+        <v>8221</v>
       </c>
       <c r="G12">
-        <v>71462.8</v>
+        <v>6083.54</v>
       </c>
       <c r="H12">
-        <v>71462.8</v>
+        <v>6264.41</v>
       </c>
       <c r="I12">
-        <v>63940.4</v>
+        <v>5220.34</v>
       </c>
       <c r="J12">
-        <v>63940.4</v>
+        <v>5220.34</v>
       </c>
       <c r="K12">
-        <v>85756</v>
+        <v>7301</v>
       </c>
       <c r="L12">
-        <v>86320</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>633917</v>
+        <v>159874</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>1631002140</v>
+        <v>1375000070</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E13">
-        <v>26557</v>
+        <v>12351</v>
       </c>
       <c r="F13">
-        <v>26557</v>
+        <v>12351</v>
       </c>
       <c r="G13">
-        <v>25229.15</v>
+        <v>9139.74</v>
       </c>
       <c r="H13">
-        <v>25229.15</v>
+        <v>9411.469999999999</v>
       </c>
       <c r="I13">
-        <v>22573.45</v>
+        <v>7842.89</v>
       </c>
       <c r="J13">
-        <v>22573.45</v>
+        <v>7842.88</v>
       </c>
       <c r="K13">
-        <v>30275</v>
+        <v>10968</v>
       </c>
       <c r="L13">
-        <v>30474</v>
+        <v>10967</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>636883</v>
+        <v>163186</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>1631002110</v>
+        <v>1004000200</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E14">
-        <v>22203</v>
+        <v>10231</v>
       </c>
       <c r="F14">
-        <v>22203</v>
+        <v>10231</v>
       </c>
       <c r="G14">
-        <v>21092.85</v>
+        <v>7570.94</v>
       </c>
       <c r="H14">
-        <v>21092.85</v>
+        <v>7796.03</v>
       </c>
       <c r="I14">
-        <v>18872.55</v>
+        <v>6496.69</v>
       </c>
       <c r="J14">
-        <v>18872.55</v>
+        <v>6496.68</v>
       </c>
       <c r="K14">
-        <v>25312</v>
+        <v>9086</v>
       </c>
       <c r="L14">
-        <v>25478</v>
+        <v>9086</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>639637</v>
+        <v>164714</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>1631002890</v>
+        <v>1375000090</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E15">
-        <v>24698</v>
+        <v>14558</v>
       </c>
       <c r="F15">
-        <v>24698</v>
+        <v>14558</v>
       </c>
       <c r="G15">
-        <v>23463.1</v>
+        <v>10772.92</v>
       </c>
       <c r="H15">
-        <v>23463.1</v>
+        <v>11093.2</v>
       </c>
       <c r="I15">
-        <v>20993.3</v>
+        <v>9244.33</v>
       </c>
       <c r="J15">
-        <v>20993.3</v>
+        <v>9244.33</v>
       </c>
       <c r="K15">
-        <v>28156</v>
+        <v>12928</v>
       </c>
       <c r="L15">
-        <v>28341</v>
+        <v>12927</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>661198</v>
+        <v>168776</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>1593000080</v>
+        <v>1041000750</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E16">
-        <v>66772</v>
+        <v>7474</v>
       </c>
       <c r="F16">
-        <v>66772</v>
+        <v>7474</v>
       </c>
       <c r="G16">
-        <v>63433.4</v>
+        <v>5530.76</v>
       </c>
       <c r="H16">
-        <v>63433.4</v>
+        <v>5695.19</v>
       </c>
       <c r="I16">
-        <v>56756.2</v>
+        <v>4745.99</v>
       </c>
       <c r="J16">
-        <v>56756.2</v>
+        <v>4745.99</v>
       </c>
       <c r="K16">
-        <v>76121</v>
+        <v>6637</v>
       </c>
       <c r="L16">
-        <v>76621</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>667098</v>
+        <v>176506</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>1100400050</v>
+        <v>2007000710</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E17">
-        <v>46541</v>
+        <v>997</v>
       </c>
       <c r="F17">
-        <v>46541</v>
+        <v>997</v>
       </c>
       <c r="G17">
-        <v>46541</v>
+        <v>737.78</v>
       </c>
       <c r="H17">
-        <v>46541</v>
+        <v>759.72</v>
       </c>
       <c r="I17">
-        <v>38163.62</v>
+        <v>633.1</v>
       </c>
       <c r="J17">
-        <v>38163.62</v>
+        <v>633.1</v>
       </c>
       <c r="K17">
-        <v>55850</v>
+        <v>886</v>
       </c>
       <c r="L17">
-        <v>51521</v>
+        <v>885.97</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>667099</v>
+        <v>176791</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>1101800220</v>
+        <v>1041000730</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E18">
-        <v>26051</v>
+        <v>5794</v>
       </c>
       <c r="F18">
-        <v>26051</v>
+        <v>5794</v>
       </c>
       <c r="G18">
-        <v>26051</v>
+        <v>4287.56</v>
       </c>
       <c r="H18">
-        <v>26051</v>
+        <v>4415.03</v>
       </c>
       <c r="I18">
-        <v>21361.82</v>
+        <v>3679.19</v>
       </c>
       <c r="J18">
-        <v>21361.82</v>
+        <v>3679.19</v>
       </c>
       <c r="K18">
-        <v>31262</v>
+        <v>5146</v>
       </c>
       <c r="L18">
-        <v>28838</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>667209</v>
+        <v>180577</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>1102300590</v>
+        <v>2297000170</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E19">
-        <v>12475</v>
+        <v>485</v>
       </c>
       <c r="F19">
-        <v>12475</v>
+        <v>485</v>
       </c>
       <c r="G19">
-        <v>9231.5</v>
+        <v>358.9</v>
       </c>
       <c r="H19">
-        <v>9231.5</v>
+        <v>369.58</v>
       </c>
       <c r="I19">
-        <v>7921.63</v>
+        <v>307.98</v>
       </c>
       <c r="J19">
-        <v>7921.62</v>
+        <v>307.98</v>
       </c>
       <c r="K19">
-        <v>11078</v>
+        <v>431</v>
       </c>
       <c r="L19">
-        <v>10694</v>
+        <v>430.97</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>667442</v>
+        <v>180579</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>1350000160</v>
+        <v>2297000160</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E20">
-        <v>37124</v>
+        <v>450</v>
       </c>
       <c r="F20">
-        <v>37124</v>
+        <v>450</v>
       </c>
       <c r="G20">
-        <v>27471.76</v>
+        <v>333</v>
       </c>
       <c r="H20">
-        <v>27471.76</v>
+        <v>342.9</v>
       </c>
       <c r="I20">
-        <v>23944.98</v>
+        <v>285.75</v>
       </c>
       <c r="J20">
-        <v>23944.98</v>
+        <v>285.75</v>
       </c>
       <c r="K20">
-        <v>32967</v>
+        <v>400</v>
       </c>
       <c r="L20">
-        <v>32326</v>
+        <v>399.97</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>667695</v>
+        <v>182199</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>1694000110</v>
+        <v>2007000730</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E21">
-        <v>10428</v>
+        <v>1063</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1063</v>
       </c>
       <c r="G21">
-        <v>7716.72</v>
+        <v>786.62</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>810.01</v>
       </c>
       <c r="I21">
-        <v>6621.78</v>
+        <v>675.01</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="K21">
-        <v>9261</v>
+        <v>944</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>943.97</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>667954</v>
+        <v>182318</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>2002003010</v>
+        <v>1057000430</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E22">
-        <v>1045</v>
+        <v>6376</v>
       </c>
       <c r="F22">
-        <v>1045</v>
+        <v>6376</v>
       </c>
       <c r="G22">
-        <v>1045</v>
+        <v>4718.24</v>
       </c>
       <c r="H22">
-        <v>1045</v>
+        <v>4858.51</v>
       </c>
       <c r="I22">
-        <v>836</v>
+        <v>4048.76</v>
       </c>
       <c r="J22">
-        <v>836</v>
+        <v>4048.76</v>
       </c>
       <c r="K22">
-        <v>1254</v>
+        <v>5662</v>
       </c>
       <c r="L22">
-        <v>1129</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>668261</v>
+        <v>183385</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>1102300520</v>
+        <v>1015001310</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E23">
-        <v>12475</v>
+        <v>7243</v>
       </c>
       <c r="F23">
-        <v>12475</v>
+        <v>7243</v>
       </c>
       <c r="G23">
-        <v>9231.5</v>
+        <v>5359.82</v>
       </c>
       <c r="H23">
-        <v>9231.5</v>
+        <v>5519.17</v>
       </c>
       <c r="I23">
-        <v>7921.63</v>
+        <v>4599.31</v>
       </c>
       <c r="J23">
-        <v>7921.62</v>
+        <v>4599.3</v>
       </c>
       <c r="K23">
-        <v>11078</v>
+        <v>6432</v>
       </c>
       <c r="L23">
-        <v>10694</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>668441</v>
+        <v>184261</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>1224005700</v>
+        <v>1015001290</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E24">
-        <v>69835</v>
+        <v>7243</v>
       </c>
       <c r="F24">
-        <v>69835</v>
+        <v>7243</v>
       </c>
       <c r="G24">
-        <v>51677.9</v>
+        <v>5359.82</v>
       </c>
       <c r="H24">
-        <v>51677.9</v>
+        <v>5519.17</v>
       </c>
       <c r="I24">
-        <v>44345.23</v>
+        <v>4599.31</v>
       </c>
       <c r="J24">
-        <v>44345.22</v>
+        <v>4599.3</v>
       </c>
       <c r="K24">
-        <v>62014</v>
+        <v>6432</v>
       </c>
       <c r="L24">
-        <v>59866</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>668442</v>
+        <v>184742</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25">
-        <v>1224005680</v>
+        <v>1057000460</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E25">
-        <v>51583</v>
+        <v>7313</v>
       </c>
       <c r="F25">
-        <v>51583</v>
+        <v>7313</v>
       </c>
       <c r="G25">
-        <v>38171.42</v>
+        <v>5411.62</v>
       </c>
       <c r="H25">
-        <v>38171.42</v>
+        <v>5572.51</v>
       </c>
       <c r="I25">
-        <v>32755.21</v>
+        <v>4643.76</v>
       </c>
       <c r="J25">
-        <v>32755.2</v>
+        <v>4643.76</v>
       </c>
       <c r="K25">
-        <v>45806</v>
+        <v>6494</v>
       </c>
       <c r="L25">
-        <v>44220</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>668734</v>
+        <v>185386</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>1593000290</v>
+        <v>1057000510</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E26">
-        <v>66772</v>
+        <v>7387</v>
       </c>
       <c r="F26">
-        <v>66772</v>
+        <v>7387</v>
       </c>
       <c r="G26">
-        <v>63433.4</v>
+        <v>5466.38</v>
       </c>
       <c r="H26">
-        <v>63433.4</v>
+        <v>5628.9</v>
       </c>
       <c r="I26">
-        <v>56756.2</v>
+        <v>4690.75</v>
       </c>
       <c r="J26">
-        <v>56756.2</v>
+        <v>4690.74</v>
       </c>
       <c r="K26">
-        <v>76121</v>
+        <v>6560</v>
       </c>
       <c r="L26">
-        <v>76621</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>668835</v>
+        <v>185909</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27">
-        <v>1224002930</v>
+        <v>1059000370</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E27">
-        <v>45464</v>
+        <v>8422</v>
       </c>
       <c r="F27">
-        <v>45464</v>
+        <v>8422</v>
       </c>
       <c r="G27">
-        <v>33643.36</v>
+        <v>6232.28</v>
       </c>
       <c r="H27">
-        <v>33643.36</v>
+        <v>6417.56</v>
       </c>
       <c r="I27">
-        <v>28869.64</v>
+        <v>5347.97</v>
       </c>
       <c r="J27">
-        <v>28869.64</v>
+        <v>5347.97</v>
       </c>
       <c r="K27">
-        <v>40373</v>
+        <v>7479</v>
       </c>
       <c r="L27">
-        <v>38974</v>
+        <v>7479</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>668858</v>
+        <v>186249</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C28">
-        <v>1350001700</v>
+        <v>2301000260</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E28">
-        <v>58900</v>
+        <v>26</v>
       </c>
       <c r="F28">
-        <v>58900</v>
+        <v>26</v>
       </c>
       <c r="G28">
-        <v>43586</v>
+        <v>19.24</v>
       </c>
       <c r="H28">
-        <v>43586</v>
+        <v>19.81</v>
       </c>
       <c r="I28">
-        <v>37990.5</v>
+        <v>16.51</v>
       </c>
       <c r="J28">
-        <v>37990.5</v>
+        <v>16.51</v>
       </c>
       <c r="K28">
-        <v>52304</v>
+        <v>24</v>
       </c>
       <c r="L28">
-        <v>51287</v>
+        <v>23.97</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>668927</v>
+        <v>195233</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>1795000050</v>
+        <v>1059000390</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E29">
-        <v>4850</v>
+        <v>5951</v>
       </c>
       <c r="F29">
-        <v>4850</v>
+        <v>5951</v>
       </c>
       <c r="G29">
-        <v>4510.5</v>
+        <v>4403.74</v>
       </c>
       <c r="H29">
-        <v>4510.5</v>
+        <v>4534.67</v>
       </c>
       <c r="I29">
-        <v>3661.75</v>
+        <v>3778.89</v>
       </c>
       <c r="J29">
-        <v>3661.75</v>
+        <v>3778.88</v>
       </c>
       <c r="K29">
-        <v>5413</v>
+        <v>5285</v>
       </c>
       <c r="L29">
-        <v>4943</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>668995</v>
+        <v>195694</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C30">
-        <v>1248005360</v>
+        <v>1059000350</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E30">
-        <v>20067</v>
+        <v>8436</v>
       </c>
       <c r="F30">
-        <v>20067</v>
+        <v>8436</v>
       </c>
       <c r="G30">
-        <v>16053.6</v>
+        <v>6242.64</v>
       </c>
       <c r="H30">
-        <v>16053.6</v>
+        <v>6428.23</v>
       </c>
       <c r="I30">
-        <v>12742.55</v>
+        <v>5356.86</v>
       </c>
       <c r="J30">
-        <v>12742.54</v>
+        <v>5356.86</v>
       </c>
       <c r="K30">
-        <v>19265</v>
+        <v>7492</v>
       </c>
       <c r="L30">
-        <v>17202</v>
+        <v>7492</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>669201</v>
+        <v>210759</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31">
-        <v>1050000280</v>
+        <v>2295000960</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E31">
-        <v>11124</v>
+        <v>155</v>
       </c>
       <c r="F31">
-        <v>11124</v>
+        <v>155</v>
       </c>
       <c r="G31">
-        <v>8231.76</v>
+        <v>114.7</v>
       </c>
       <c r="H31">
-        <v>8231.76</v>
+        <v>118.12</v>
       </c>
       <c r="I31">
-        <v>7063.74</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="J31">
-        <v>7063.74</v>
+        <v>98.42</v>
       </c>
       <c r="K31">
-        <v>9879</v>
+        <v>138</v>
       </c>
       <c r="L31">
-        <v>9536</v>
+        <v>137.97</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>669202</v>
+        <v>210792</v>
       </c>
       <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>2297000180</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32">
+        <v>140</v>
+      </c>
+      <c r="F32">
+        <v>140</v>
+      </c>
+      <c r="G32">
+        <v>103.6</v>
+      </c>
+      <c r="H32">
+        <v>106.68</v>
+      </c>
+      <c r="I32">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="J32">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="K32">
+        <v>125</v>
+      </c>
+      <c r="L32">
+        <v>124.97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>213776</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>1004000180</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33">
+        <v>7475</v>
+      </c>
+      <c r="F33">
+        <v>7475</v>
+      </c>
+      <c r="G33">
+        <v>5531.5</v>
+      </c>
+      <c r="H33">
+        <v>5695.96</v>
+      </c>
+      <c r="I33">
+        <v>4746.63</v>
+      </c>
+      <c r="J33">
+        <v>4746.62</v>
+      </c>
+      <c r="K33">
+        <v>6638</v>
+      </c>
+      <c r="L33">
+        <v>6638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>217260</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>1057000480</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34">
+        <v>9294</v>
+      </c>
+      <c r="F34">
+        <v>9294</v>
+      </c>
+      <c r="G34">
+        <v>6877.56</v>
+      </c>
+      <c r="H34">
+        <v>7082.03</v>
+      </c>
+      <c r="I34">
+        <v>5901.69</v>
+      </c>
+      <c r="J34">
+        <v>5901.69</v>
+      </c>
+      <c r="K34">
+        <v>8254</v>
+      </c>
+      <c r="L34">
+        <v>8254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>219393</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>1027000750</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35">
+        <v>7033</v>
+      </c>
+      <c r="F35">
+        <v>7033</v>
+      </c>
+      <c r="G35">
+        <v>5204.42</v>
+      </c>
+      <c r="H35">
+        <v>5359.15</v>
+      </c>
+      <c r="I35">
+        <v>4465.96</v>
+      </c>
+      <c r="J35">
+        <v>4465.96</v>
+      </c>
+      <c r="K35">
+        <v>6246</v>
+      </c>
+      <c r="L35">
+        <v>6246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>225641</v>
+      </c>
+      <c r="B36" t="s">
         <v>41</v>
       </c>
-      <c r="C32">
-        <v>1088000640</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C36">
+        <v>1041000830</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36">
+        <v>13198</v>
+      </c>
+      <c r="F36">
+        <v>13198</v>
+      </c>
+      <c r="G36">
+        <v>9766.52</v>
+      </c>
+      <c r="H36">
+        <v>10056.88</v>
+      </c>
+      <c r="I36">
+        <v>8380.73</v>
+      </c>
+      <c r="J36">
+        <v>8380.73</v>
+      </c>
+      <c r="K36">
+        <v>11720</v>
+      </c>
+      <c r="L36">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>226368</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>1004000200</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37">
+        <v>10231</v>
+      </c>
+      <c r="F37">
+        <v>10231</v>
+      </c>
+      <c r="G37">
+        <v>7570.94</v>
+      </c>
+      <c r="H37">
+        <v>7796.03</v>
+      </c>
+      <c r="I37">
+        <v>6496.69</v>
+      </c>
+      <c r="J37">
+        <v>6496.68</v>
+      </c>
+      <c r="K37">
+        <v>9086</v>
+      </c>
+      <c r="L37">
+        <v>9086</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>227918</v>
+      </c>
+      <c r="B38" t="s">
         <v>42</v>
       </c>
-      <c r="E32">
-        <v>13405</v>
-      </c>
-      <c r="F32">
-        <v>13405</v>
-      </c>
-      <c r="G32">
-        <v>9919.700000000001</v>
-      </c>
-      <c r="H32">
-        <v>9919.700000000001</v>
-      </c>
-      <c r="I32">
-        <v>8512.18</v>
-      </c>
-      <c r="J32">
-        <v>8512.17</v>
-      </c>
-      <c r="K32">
-        <v>11904</v>
-      </c>
-      <c r="L32">
-        <v>11491</v>
+      <c r="C38">
+        <v>1373001620</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38">
+        <v>22060</v>
+      </c>
+      <c r="F38">
+        <v>22060</v>
+      </c>
+      <c r="G38">
+        <v>16324.4</v>
+      </c>
+      <c r="H38">
+        <v>16809.72</v>
+      </c>
+      <c r="I38">
+        <v>14008.1</v>
+      </c>
+      <c r="J38">
+        <v>14008.1</v>
+      </c>
+      <c r="K38">
+        <v>19590</v>
+      </c>
+      <c r="L38">
+        <v>19589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>232796</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>1041000960</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39">
+        <v>15467</v>
+      </c>
+      <c r="F39">
+        <v>15467</v>
+      </c>
+      <c r="G39">
+        <v>11445.58</v>
+      </c>
+      <c r="H39">
+        <v>11785.86</v>
+      </c>
+      <c r="I39">
+        <v>9821.549999999999</v>
+      </c>
+      <c r="J39">
+        <v>9821.540000000001</v>
+      </c>
+      <c r="K39">
+        <v>13735</v>
+      </c>
+      <c r="L39">
+        <v>13734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>233557</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>1015001420</v>
+      </c>
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40">
+        <v>17772</v>
+      </c>
+      <c r="F40">
+        <v>17772</v>
+      </c>
+      <c r="G40">
+        <v>13151.28</v>
+      </c>
+      <c r="H40">
+        <v>13542.26</v>
+      </c>
+      <c r="I40">
+        <v>11285.22</v>
+      </c>
+      <c r="J40">
+        <v>11285.22</v>
+      </c>
+      <c r="K40">
+        <v>15782</v>
+      </c>
+      <c r="L40">
+        <v>15781</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>233558</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>1007001390</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41">
+        <v>3888</v>
+      </c>
+      <c r="F41">
+        <v>3888</v>
+      </c>
+      <c r="G41">
+        <v>2877.12</v>
+      </c>
+      <c r="H41">
+        <v>2962.66</v>
+      </c>
+      <c r="I41">
+        <v>2468.88</v>
+      </c>
+      <c r="J41">
+        <v>2468.88</v>
+      </c>
+      <c r="K41">
+        <v>3453</v>
+      </c>
+      <c r="L41">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>234601</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>1027000710</v>
+      </c>
+      <c r="D42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42">
+        <v>5987</v>
+      </c>
+      <c r="F42">
+        <v>5987</v>
+      </c>
+      <c r="G42">
+        <v>4430.38</v>
+      </c>
+      <c r="H42">
+        <v>4562.1</v>
+      </c>
+      <c r="I42">
+        <v>3801.75</v>
+      </c>
+      <c r="J42">
+        <v>3801.74</v>
+      </c>
+      <c r="K42">
+        <v>5317</v>
+      </c>
+      <c r="L42">
+        <v>5317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>234950</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>1502000010</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43">
+        <v>10164</v>
+      </c>
+      <c r="F43">
+        <v>10164</v>
+      </c>
+      <c r="G43">
+        <v>7521.36</v>
+      </c>
+      <c r="H43">
+        <v>7623</v>
+      </c>
+      <c r="I43">
+        <v>6352.5</v>
+      </c>
+      <c r="J43">
+        <v>6352.5</v>
+      </c>
+      <c r="K43">
+        <v>9026</v>
+      </c>
+      <c r="L43">
+        <v>9026</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>234960</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>1502000020</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44">
+        <v>10164</v>
+      </c>
+      <c r="F44">
+        <v>10164</v>
+      </c>
+      <c r="G44">
+        <v>7521.36</v>
+      </c>
+      <c r="H44">
+        <v>7623</v>
+      </c>
+      <c r="I44">
+        <v>6352.5</v>
+      </c>
+      <c r="J44">
+        <v>6352.5</v>
+      </c>
+      <c r="K44">
+        <v>9026</v>
+      </c>
+      <c r="L44">
+        <v>9026</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>235080</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>1502000020</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45">
+        <v>10164</v>
+      </c>
+      <c r="F45">
+        <v>10164</v>
+      </c>
+      <c r="G45">
+        <v>7521.36</v>
+      </c>
+      <c r="H45">
+        <v>7623</v>
+      </c>
+      <c r="I45">
+        <v>6352.5</v>
+      </c>
+      <c r="J45">
+        <v>6352.5</v>
+      </c>
+      <c r="K45">
+        <v>9026</v>
+      </c>
+      <c r="L45">
+        <v>9026</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>241757</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>1593000280</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46">
+        <v>9737</v>
+      </c>
+      <c r="F46">
+        <v>9737</v>
+      </c>
+      <c r="G46">
+        <v>7205.38</v>
+      </c>
+      <c r="H46">
+        <v>7302.76</v>
+      </c>
+      <c r="I46">
+        <v>6085.63</v>
+      </c>
+      <c r="J46">
+        <v>6085.62</v>
+      </c>
+      <c r="K46">
+        <v>8647</v>
+      </c>
+      <c r="L46">
+        <v>8646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>276498</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47">
+        <v>1057000460</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47">
+        <v>7313</v>
+      </c>
+      <c r="F47">
+        <v>7313</v>
+      </c>
+      <c r="G47">
+        <v>5411.62</v>
+      </c>
+      <c r="H47">
+        <v>5572.51</v>
+      </c>
+      <c r="I47">
+        <v>4643.76</v>
+      </c>
+      <c r="J47">
+        <v>4643.76</v>
+      </c>
+      <c r="K47">
+        <v>6494</v>
+      </c>
+      <c r="L47">
+        <v>6494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>306288</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>1502000070</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48">
+        <v>11424</v>
+      </c>
+      <c r="F48">
+        <v>11424</v>
+      </c>
+      <c r="G48">
+        <v>8453.76</v>
+      </c>
+      <c r="H48">
+        <v>8568</v>
+      </c>
+      <c r="I48">
+        <v>7140</v>
+      </c>
+      <c r="J48">
+        <v>7140</v>
+      </c>
+      <c r="K48">
+        <v>10145</v>
+      </c>
+      <c r="L48">
+        <v>10145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>307759</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>1502000070</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49">
+        <v>11424</v>
+      </c>
+      <c r="F49">
+        <v>11424</v>
+      </c>
+      <c r="G49">
+        <v>8453.76</v>
+      </c>
+      <c r="H49">
+        <v>8568</v>
+      </c>
+      <c r="I49">
+        <v>7140</v>
+      </c>
+      <c r="J49">
+        <v>7140</v>
+      </c>
+      <c r="K49">
+        <v>10145</v>
+      </c>
+      <c r="L49">
+        <v>10145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>399765</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>1235001130</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50">
+        <v>9676</v>
+      </c>
+      <c r="F50">
+        <v>2625</v>
+      </c>
+      <c r="G50">
+        <v>7740.8</v>
+      </c>
+      <c r="H50">
+        <v>3019</v>
+      </c>
+      <c r="I50">
+        <v>6144.26</v>
+      </c>
+      <c r="J50">
+        <v>2625</v>
+      </c>
+      <c r="K50">
+        <v>9289</v>
+      </c>
+      <c r="L50">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>513488</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>1235000330</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51">
+        <v>21900</v>
+      </c>
+      <c r="F51">
+        <v>4875</v>
+      </c>
+      <c r="G51">
+        <v>17520</v>
+      </c>
+      <c r="H51">
+        <v>5607</v>
+      </c>
+      <c r="I51">
+        <v>13906.5</v>
+      </c>
+      <c r="J51">
+        <v>4875</v>
+      </c>
+      <c r="K51">
+        <v>21024</v>
+      </c>
+      <c r="L51">
+        <v>7313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>515423</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1235000950</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>19643</v>
+      </c>
+      <c r="F52">
+        <v>5375</v>
+      </c>
+      <c r="G52">
+        <v>15714.4</v>
+      </c>
+      <c r="H52">
+        <v>6182</v>
+      </c>
+      <c r="I52">
+        <v>12473.31</v>
+      </c>
+      <c r="J52">
+        <v>5375</v>
+      </c>
+      <c r="K52">
+        <v>18858</v>
+      </c>
+      <c r="L52">
+        <v>8063</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>520724</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>1235000320</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53">
+        <v>15997</v>
+      </c>
+      <c r="F53">
+        <v>6875</v>
+      </c>
+      <c r="G53">
+        <v>12797.6</v>
+      </c>
+      <c r="H53">
+        <v>7907</v>
+      </c>
+      <c r="I53">
+        <v>10158.1</v>
+      </c>
+      <c r="J53">
+        <v>6875</v>
+      </c>
+      <c r="K53">
+        <v>15358</v>
+      </c>
+      <c r="L53">
+        <v>10313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>544417</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>1028001480</v>
+      </c>
+      <c r="D54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54">
+        <v>9017</v>
+      </c>
+      <c r="F54">
+        <v>9017</v>
+      </c>
+      <c r="G54">
+        <v>6672.58</v>
+      </c>
+      <c r="H54">
+        <v>6672.58</v>
+      </c>
+      <c r="I54">
+        <v>5725.8</v>
+      </c>
+      <c r="J54">
+        <v>5725.8</v>
+      </c>
+      <c r="K54">
+        <v>8008</v>
+      </c>
+      <c r="L54">
+        <v>7997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>623540</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>1102300370</v>
+      </c>
+      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55">
+        <v>11134</v>
+      </c>
+      <c r="F55">
+        <v>2500</v>
+      </c>
+      <c r="G55">
+        <v>8239.16</v>
+      </c>
+      <c r="H55">
+        <v>2876</v>
+      </c>
+      <c r="I55">
+        <v>7070.09</v>
+      </c>
+      <c r="J55">
+        <v>2500</v>
+      </c>
+      <c r="K55">
+        <v>9887</v>
+      </c>
+      <c r="L55">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>671090</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>1598000560</v>
+      </c>
+      <c r="D56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56">
+        <v>13835</v>
+      </c>
+      <c r="F56">
+        <v>13835</v>
+      </c>
+      <c r="G56">
+        <v>10237.9</v>
+      </c>
+      <c r="H56">
+        <v>10237.9</v>
+      </c>
+      <c r="I56">
+        <v>8785.23</v>
+      </c>
+      <c r="J56">
+        <v>8785.219999999999</v>
+      </c>
+      <c r="K56">
+        <v>12286</v>
+      </c>
+      <c r="L56">
+        <v>11860</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>671173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57">
+        <v>1631003210</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57">
+        <v>20168</v>
+      </c>
+      <c r="F57">
+        <v>20168</v>
+      </c>
+      <c r="G57">
+        <v>14924.32</v>
+      </c>
+      <c r="H57">
+        <v>14924.32</v>
+      </c>
+      <c r="I57">
+        <v>12806.68</v>
+      </c>
+      <c r="J57">
+        <v>12806.68</v>
+      </c>
+      <c r="K57">
+        <v>17910</v>
+      </c>
+      <c r="L57">
+        <v>17289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>671174</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>1350001500</v>
+      </c>
+      <c r="D58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58">
+        <v>21776</v>
+      </c>
+      <c r="F58">
+        <v>21776</v>
+      </c>
+      <c r="G58">
+        <v>16114.24</v>
+      </c>
+      <c r="H58">
+        <v>16114.24</v>
+      </c>
+      <c r="I58">
+        <v>14045.52</v>
+      </c>
+      <c r="J58">
+        <v>14045.52</v>
+      </c>
+      <c r="K58">
+        <v>19338</v>
+      </c>
+      <c r="L58">
+        <v>18961</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>671189</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>1028000880</v>
+      </c>
+      <c r="D59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59">
+        <v>13466</v>
+      </c>
+      <c r="F59">
+        <v>13466</v>
+      </c>
+      <c r="G59">
+        <v>9964.84</v>
+      </c>
+      <c r="H59">
+        <v>9964.84</v>
+      </c>
+      <c r="I59">
+        <v>8550.91</v>
+      </c>
+      <c r="J59">
+        <v>8550.91</v>
+      </c>
+      <c r="K59">
+        <v>11958</v>
+      </c>
+      <c r="L59">
+        <v>11544</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>673249</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>1631003460</v>
+      </c>
+      <c r="D60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60">
+        <v>28260</v>
+      </c>
+      <c r="F60">
+        <v>28260</v>
+      </c>
+      <c r="G60">
+        <v>26847</v>
+      </c>
+      <c r="H60">
+        <v>26847</v>
+      </c>
+      <c r="I60">
+        <v>24021</v>
+      </c>
+      <c r="J60">
+        <v>24021</v>
+      </c>
+      <c r="K60">
+        <v>32217</v>
+      </c>
+      <c r="L60">
+        <v>32428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>673309</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>1100500040</v>
+      </c>
+      <c r="D61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61">
+        <v>13534</v>
+      </c>
+      <c r="F61">
+        <v>13534</v>
+      </c>
+      <c r="G61">
+        <v>13534</v>
+      </c>
+      <c r="H61">
+        <v>13534</v>
+      </c>
+      <c r="I61">
+        <v>11097.88</v>
+      </c>
+      <c r="J61">
+        <v>11097.88</v>
+      </c>
+      <c r="K61">
+        <v>16241</v>
+      </c>
+      <c r="L61">
+        <v>14982</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>673324</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62">
+        <v>1334001360</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62">
+        <v>45136</v>
+      </c>
+      <c r="F62">
+        <v>45136</v>
+      </c>
+      <c r="G62">
+        <v>33400.64</v>
+      </c>
+      <c r="H62">
+        <v>33400.64</v>
+      </c>
+      <c r="I62">
+        <v>28661.36</v>
+      </c>
+      <c r="J62">
+        <v>28661.36</v>
+      </c>
+      <c r="K62">
+        <v>40081</v>
+      </c>
+      <c r="L62">
+        <v>38693</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>673331</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63">
+        <v>1088000700</v>
+      </c>
+      <c r="D63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63">
+        <v>22678</v>
+      </c>
+      <c r="F63">
+        <v>22678</v>
+      </c>
+      <c r="G63">
+        <v>16781.72</v>
+      </c>
+      <c r="H63">
+        <v>16781.72</v>
+      </c>
+      <c r="I63">
+        <v>14400.53</v>
+      </c>
+      <c r="J63">
+        <v>14400.53</v>
+      </c>
+      <c r="K63">
+        <v>20139</v>
+      </c>
+      <c r="L63">
+        <v>19441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>673431</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>1598001100</v>
+      </c>
+      <c r="D64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64">
+        <v>11645</v>
+      </c>
+      <c r="F64">
+        <v>11645</v>
+      </c>
+      <c r="G64">
+        <v>8617.299999999999</v>
+      </c>
+      <c r="H64">
+        <v>8617.299999999999</v>
+      </c>
+      <c r="I64">
+        <v>7394.58</v>
+      </c>
+      <c r="J64">
+        <v>7394.58</v>
+      </c>
+      <c r="K64">
+        <v>10341</v>
+      </c>
+      <c r="L64">
+        <v>9983</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>673619</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <v>1507000390</v>
+      </c>
+      <c r="D65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65">
+        <v>5837</v>
+      </c>
+      <c r="F65">
+        <v>5837</v>
+      </c>
+      <c r="G65">
+        <v>4669.6</v>
+      </c>
+      <c r="H65">
+        <v>4669.6</v>
+      </c>
+      <c r="I65">
+        <v>3706.5</v>
+      </c>
+      <c r="J65">
+        <v>3706.5</v>
+      </c>
+      <c r="K65">
+        <v>5604</v>
+      </c>
+      <c r="L65">
+        <v>4997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>673740</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66">
+        <v>1022000100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66">
+        <v>11381</v>
+      </c>
+      <c r="F66">
+        <v>11381</v>
+      </c>
+      <c r="G66">
+        <v>8421.940000000001</v>
+      </c>
+      <c r="H66">
+        <v>8421.940000000001</v>
+      </c>
+      <c r="I66">
+        <v>7226.94</v>
+      </c>
+      <c r="J66">
+        <v>7226.94</v>
+      </c>
+      <c r="K66">
+        <v>10107</v>
+      </c>
+      <c r="L66">
+        <v>9756</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>673830</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67">
+        <v>1166002300</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67">
+        <v>13545</v>
+      </c>
+      <c r="F67">
+        <v>13545</v>
+      </c>
+      <c r="G67">
+        <v>10023.3</v>
+      </c>
+      <c r="H67">
+        <v>10023.3</v>
+      </c>
+      <c r="I67">
+        <v>8601.08</v>
+      </c>
+      <c r="J67">
+        <v>8601.08</v>
+      </c>
+      <c r="K67">
+        <v>12028</v>
+      </c>
+      <c r="L67">
+        <v>11611</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>674119</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>4911009120</v>
+      </c>
+      <c r="D68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68">
+        <v>6608</v>
+      </c>
+      <c r="F68">
+        <v>6608</v>
+      </c>
+      <c r="G68">
+        <v>5947.2</v>
+      </c>
+      <c r="H68">
+        <v>5947.2</v>
+      </c>
+      <c r="I68">
+        <v>4956</v>
+      </c>
+      <c r="J68">
+        <v>4956</v>
+      </c>
+      <c r="K68">
+        <v>7137</v>
+      </c>
+      <c r="L68">
+        <v>6691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>674351</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69">
+        <v>1226000560</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69">
+        <v>50576</v>
+      </c>
+      <c r="F69">
+        <v>50576</v>
+      </c>
+      <c r="G69">
+        <v>48047.2</v>
+      </c>
+      <c r="H69">
+        <v>48047.2</v>
+      </c>
+      <c r="I69">
+        <v>42989.6</v>
+      </c>
+      <c r="J69">
+        <v>42989.6</v>
+      </c>
+      <c r="K69">
+        <v>57657</v>
+      </c>
+      <c r="L69">
+        <v>58036</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>674487</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>1138000960</v>
+      </c>
+      <c r="D70" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70">
+        <v>15104</v>
+      </c>
+      <c r="F70">
+        <v>15104</v>
+      </c>
+      <c r="G70">
+        <v>11176.96</v>
+      </c>
+      <c r="H70">
+        <v>11176.96</v>
+      </c>
+      <c r="I70">
+        <v>9591.040000000001</v>
+      </c>
+      <c r="J70">
+        <v>9591.040000000001</v>
+      </c>
+      <c r="K70">
+        <v>13413</v>
+      </c>
+      <c r="L70">
+        <v>12948</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>674639</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71">
+        <v>1372001260</v>
+      </c>
+      <c r="D71" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71">
+        <v>11877</v>
+      </c>
+      <c r="F71">
+        <v>11877</v>
+      </c>
+      <c r="G71">
+        <v>8788.98</v>
+      </c>
+      <c r="H71">
+        <v>8788.98</v>
+      </c>
+      <c r="I71">
+        <v>7541.9</v>
+      </c>
+      <c r="J71">
+        <v>7541.9</v>
+      </c>
+      <c r="K71">
+        <v>10547</v>
+      </c>
+      <c r="L71">
+        <v>10182</v>
       </c>
     </row>
   </sheetData>
